--- a/va_facility_data_2025-02-20/El Paso VA Clinic - Facility Data.xlsx"; filename*=UTF-8''El%20Paso%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/El Paso VA Clinic - Facility Data.xlsx"; filename*=UTF-8''El%20Paso%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R9f39e56db8124f7f8690979da9a202dc"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="R589bc76afbb944f08fea690bbdb37f54"/>
-    <x:sheet name="Wait Times" sheetId="3" r:id="R26872b7b777f4d3c9e096fae28c33977"/>
-    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R882897d5cea24d5e82a89f00c1d9768b"/>
-    <x:sheet name="Outpatient Score" sheetId="5" r:id="R12b07c270c1e49b5bd991ae9a5631291"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R4d0493f9474042039a91cad9eaa8781f"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="Rb087ae67fc384336a3da952e013f8dcb"/>
+    <x:sheet name="Wait Times" sheetId="3" r:id="R6cf5270c59a5470199597f94afe170ce"/>
+    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="Rd4e9a710bc6a4ab7b9032cf5e4a0839e"/>
+    <x:sheet name="Outpatient Score" sheetId="5" r:id="R7f29b81b8586420595442aa8f0990fa7"/>
   </x:sheets>
 </x:workbook>
 </file>
